--- a/TestPaperManager/static/TestPaperManager/excel/import_template.xlsx
+++ b/TestPaperManager/static/TestPaperManager/excel/import_template.xlsx
@@ -8,13 +8,26 @@
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="下拉框" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="种类">下拉框!$A$1:$I$1</definedName>
+    <definedName name="语文">下拉框!$A$2:$A$9</definedName>
+    <definedName name="数学">下拉框!$B$2:$B$9</definedName>
+    <definedName name="英语">下拉框!$C$2:$C$9</definedName>
+    <definedName name="政治">下拉框!$D$2:$D$9</definedName>
+    <definedName name="历史">下拉框!$E$2:$E$9</definedName>
+    <definedName name="地理">下拉框!$F$2:$F$9</definedName>
+    <definedName name="物理">下拉框!$G$2:$G$9</definedName>
+    <definedName name="化学">下拉框!$H$2:$H$9</definedName>
+    <definedName name="生物">下拉框!$I$2:$I$9</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>题目类型</t>
   </si>
@@ -59,6 +72,96 @@
   </si>
   <si>
     <t>选项五</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>默写</t>
+  </si>
+  <si>
+    <t>选择题</t>
+  </si>
+  <si>
+    <t>听力</t>
+  </si>
+  <si>
+    <t>语言表达</t>
+  </si>
+  <si>
+    <t>填空题</t>
+  </si>
+  <si>
+    <t>诗歌鉴赏</t>
+  </si>
+  <si>
+    <t>解答题</t>
+  </si>
+  <si>
+    <t>选题填空</t>
+  </si>
+  <si>
+    <t>作图题</t>
+  </si>
+  <si>
+    <t>简答题</t>
+  </si>
+  <si>
+    <t>文言文阅读</t>
+  </si>
+  <si>
+    <t>判断题</t>
+  </si>
+  <si>
+    <t>将单词改为适当形式填空</t>
+  </si>
+  <si>
+    <t>计算题</t>
+  </si>
+  <si>
+    <t>现代文阅读</t>
+  </si>
+  <si>
+    <t>应用题</t>
+  </si>
+  <si>
+    <t>改写句子</t>
+  </si>
+  <si>
+    <t>实验题</t>
+  </si>
+  <si>
+    <t>作文</t>
+  </si>
+  <si>
+    <t>阅读理解</t>
+  </si>
+  <si>
+    <t>完形填空</t>
   </si>
 </sst>
 </file>
@@ -80,6 +183,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -88,15 +230,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,18 +289,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,16 +305,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,68 +322,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,43 +336,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,139 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +527,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,8 +563,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,7 +573,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,30 +589,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +610,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -532,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,7 +1106,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -1146,21 +1249,169 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>"一年级,二年级,三年级,四年级,五年级,六年级,七年级,八年级,九年级"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1:E1 F1 G1 H1 I1:J1 M1 N1 O1 P1:XFD1 K2:L1048576 M2:XFD1048576 C2:E1048576 H2:J1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>"单选题,多选题,判断题,简答题,填空题,计算题"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>种类</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"简单,一般,困难"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"语文,数学,英语,政治,历史,地理,物理,化学,生物"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"一年级,二年级,三年级,四年级,五年级,六年级,七年级,八年级,九年级"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="17.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="23.8888888888889" customWidth="1"/>
+    <col min="4" max="9" width="17.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/TestPaperManager/static/TestPaperManager/excel/import_template.xlsx
+++ b/TestPaperManager/static/TestPaperManager/excel/import_template.xlsx
@@ -8,28 +8,31 @@
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="1" r:id="rId1"/>
-    <sheet name="下拉框" sheetId="2" r:id="rId2"/>
+    <sheet name="下拉框" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="种类">下拉框!$A$1:$I$1</definedName>
-    <definedName name="语文">下拉框!$A$2:$A$9</definedName>
-    <definedName name="数学">下拉框!$B$2:$B$9</definedName>
+    <definedName name="语文">下拉框!$A$2:$A$7</definedName>
+    <definedName name="数学">下拉框!$B$2:$B$6</definedName>
     <definedName name="英语">下拉框!$C$2:$C$9</definedName>
-    <definedName name="政治">下拉框!$D$2:$D$9</definedName>
-    <definedName name="历史">下拉框!$E$2:$E$9</definedName>
-    <definedName name="地理">下拉框!$F$2:$F$9</definedName>
-    <definedName name="物理">下拉框!$G$2:$G$9</definedName>
-    <definedName name="化学">下拉框!$H$2:$H$9</definedName>
-    <definedName name="生物">下拉框!$I$2:$I$9</definedName>
+    <definedName name="政治">下拉框!$D$2</definedName>
+    <definedName name="历史">下拉框!$E$2</definedName>
+    <definedName name="地理">下拉框!$F$2</definedName>
+    <definedName name="物理">下拉框!$G$2:$G$6</definedName>
+    <definedName name="化学">下拉框!$H$2:$H$4</definedName>
+    <definedName name="生物">下拉框!$I$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
-  <si>
-    <t>题目类型</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+  <si>
+    <t>科目</t>
+  </si>
+  <si>
+    <t>题型</t>
   </si>
   <si>
     <t>题目难度</t>
@@ -42,9 +45,6 @@
   </si>
   <si>
     <t>试卷年份</t>
-  </si>
-  <si>
-    <t>科目</t>
   </si>
   <si>
     <t>年级</t>
@@ -1106,12 +1106,12 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="15" width="11.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="15" width="12" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.6944444444444" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.85185185185185" style="1"/>
   </cols>
@@ -1249,15 +1249,15 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1:E1 F1 G1 H1 I1:J1 M1 N1 O1 P1:XFD1 K2:L1048576 M2:XFD1048576 C2:E1048576 H2:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1 D1:F1 G1 H1 I1:J1 M1 N1 O1 P1:XFD1 K2:L1048576 M2:XFD1048576 H2:J1048576 D2:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"简单,一般,困难"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
-      <formula1>"单选题,多选题,判断题,简答题,填空题,计算题"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>种类</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
-      <formula1>"简单,一般,困难"</formula1>
+      <formula1>INDIRECT($A2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"一年级,二年级,三年级,四年级,五年级,六年级,七年级,八年级,九年级"</formula1>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I2" sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1313,7 +1313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1323,10 +1323,22 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
       <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
     </row>
